--- a/data/trans_dic/P02E$otras-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1129340786536624</v>
+        <v>0.1143199134396831</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04329845087318348</v>
+        <v>0.04557609352042144</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03971995910212857</v>
+        <v>0.03398230010987219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03494291420335963</v>
+        <v>0.03398670677147422</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02413799012944962</v>
+        <v>0.02353159060287025</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06945061887335845</v>
+        <v>0.07017642154681202</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08247153193050713</v>
+        <v>0.08562003890062873</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04437345497283612</v>
+        <v>0.04440706580808527</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06929723192507461</v>
+        <v>0.0707271276751099</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2534700794976076</v>
+        <v>0.2466340883969765</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1422141281259081</v>
+        <v>0.1427583340791337</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1618480679051348</v>
+        <v>0.1469402336463032</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1292893066550027</v>
+        <v>0.1334476082948845</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1052983006202744</v>
+        <v>0.1002163146522763</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1914876786117923</v>
+        <v>0.186259768005852</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1715534118007762</v>
+        <v>0.1717365816083619</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1071690768331276</v>
+        <v>0.1100148876359973</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1520996193418806</v>
+        <v>0.1515794431251684</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02776091020629811</v>
+        <v>0.02432139783321767</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02587990447465491</v>
+        <v>0.0252384183262458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02873844955351569</v>
+        <v>0.0286281944033944</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02743583154516993</v>
+        <v>0.02752267578730061</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02457195340336007</v>
+        <v>0.02453582632963751</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08932505047939854</v>
+        <v>0.09056949320249123</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03516712288127374</v>
+        <v>0.0342705960301078</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03225117465751379</v>
+        <v>0.03230023397941093</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0781395824981429</v>
+        <v>0.07562965193488856</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1543051009575455</v>
+        <v>0.1597246380688858</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1231439325941304</v>
+        <v>0.1192806029319777</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1286505734365172</v>
+        <v>0.1361523523075406</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1018021979973126</v>
+        <v>0.1055593133836347</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08637864096291416</v>
+        <v>0.08519823411412823</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2074161676719478</v>
+        <v>0.2029331272336459</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1071585840869919</v>
+        <v>0.1092443166559058</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08304312263635003</v>
+        <v>0.07906151058103245</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1585431469054876</v>
+        <v>0.1537823687778158</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02301585052514635</v>
+        <v>0.02281917440778897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02925296120992632</v>
+        <v>0.0297663977230275</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04536063866165998</v>
+        <v>0.04681615604440056</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0445529234426409</v>
+        <v>0.03924415582398778</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04266106947352648</v>
+        <v>0.04119293079969992</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03897778627087332</v>
+        <v>0.03842617936495347</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004717272062394065</v>
+        <v>0.0047250885846731</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1081676111417604</v>
+        <v>0.1011297928171337</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09214437300887031</v>
+        <v>0.09605428915555006</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03270149464939326</v>
+        <v>0.03706124810682975</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2059390863197772</v>
+        <v>0.2079321640871558</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1513773917479235</v>
+        <v>0.1580394342048243</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.107129116239099</v>
+        <v>0.1278084505809465</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1210100867565301</v>
+        <v>0.1183964276084335</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1022612980826306</v>
+        <v>0.09934417920277307</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04513008785314734</v>
+        <v>0.04015510012963312</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03958052544557827</v>
+        <v>0.04083867688056346</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02689139786756327</v>
+        <v>0.02779979835406037</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02610978955994804</v>
+        <v>0.02404954629736318</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04698300189253259</v>
+        <v>0.04635641978606518</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02941383407238269</v>
+        <v>0.02976108613440568</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08115914596166171</v>
+        <v>0.08140515101889897</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05005336055298744</v>
+        <v>0.0498184698614233</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0333628895770979</v>
+        <v>0.03431592396803108</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06210490709085929</v>
+        <v>0.06307639185367128</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1101586270112521</v>
+        <v>0.1064422008370324</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07233852513601166</v>
+        <v>0.07382257072344021</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08180472747961454</v>
+        <v>0.07905903426795442</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1149738844374988</v>
+        <v>0.1147224639245909</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07172642184802068</v>
+        <v>0.07241550986023933</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1555160073630458</v>
+        <v>0.1498942807650059</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09603601380333332</v>
+        <v>0.09883613829873965</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06413681253216061</v>
+        <v>0.06422056329454569</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1083746665400274</v>
+        <v>0.111860941221543</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0156486468803091</v>
+        <v>0.01577539935991114</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00767730064257107</v>
+        <v>0.007624101951014007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03086439470485194</v>
+        <v>0.03567726861810011</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03021935161497447</v>
+        <v>0.03093382635467535</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04538351611344935</v>
+        <v>0.04794595522748377</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04751876084010715</v>
+        <v>0.04635581905463823</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03261338335725026</v>
+        <v>0.03473148741477424</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04029248632741415</v>
+        <v>0.04047209982978643</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05044173716814164</v>
+        <v>0.04710955226221683</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1326603101724631</v>
+        <v>0.1304700834070918</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07465976134731274</v>
+        <v>0.06793942581123957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1200708919807142</v>
+        <v>0.1249080898460706</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0976056546681283</v>
+        <v>0.09996326802475969</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09980175245312291</v>
+        <v>0.1022730649207207</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1176547065904317</v>
+        <v>0.1166780325919793</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09354294961670294</v>
+        <v>0.0883891873214796</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08274804583585275</v>
+        <v>0.08369050176174017</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1025017097770736</v>
+        <v>0.1046948645665564</v>
       </c>
     </row>
     <row r="19">
@@ -1225,22 +1225,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01370385827761236</v>
+        <v>0.01596605087759094</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01398826852317479</v>
+        <v>0.01134337119998271</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02362997386995344</v>
+        <v>0.02579149863065173</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01567225054835452</v>
+        <v>0.01594329175496571</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01118579127711675</v>
+        <v>0.01343441968449516</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02645124048016156</v>
+        <v>0.02642162637191437</v>
       </c>
     </row>
     <row r="21">
@@ -1253,25 +1253,25 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.211435223408644</v>
+        <v>0.3359068110101291</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06218001008902801</v>
+        <v>0.06611849294101023</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05417825215160967</v>
+        <v>0.05432128825751985</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0931082646812998</v>
+        <v>0.09551422759314544</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06377161269583202</v>
+        <v>0.06074969717235465</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05223599060620177</v>
+        <v>0.0512468444748229</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0916041220411067</v>
+        <v>0.0887007863866406</v>
       </c>
     </row>
     <row r="22">
@@ -1321,31 +1321,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06176424516246202</v>
+        <v>0.06240109203997404</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0391650301272831</v>
+        <v>0.03901398668467522</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03763314371357473</v>
+        <v>0.03703721671350866</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04788211427944972</v>
+        <v>0.0467030813848348</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04282246256437147</v>
+        <v>0.04203797084866439</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07818768166720183</v>
+        <v>0.07903211254094444</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05620219700085404</v>
+        <v>0.05729261069452583</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04490845203557738</v>
+        <v>0.04421840202064131</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06479000434252018</v>
+        <v>0.065752323206568</v>
       </c>
     </row>
     <row r="24">
@@ -1356,31 +1356,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1046491827477116</v>
+        <v>0.1083105060843207</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06833876698288469</v>
+        <v>0.06866112221155705</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06963301433554055</v>
+        <v>0.06874730437021918</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07690444470349928</v>
+        <v>0.0772557702328216</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06553052044834028</v>
+        <v>0.06554789953466439</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1154996233822183</v>
+        <v>0.1142690865510882</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08197385011359588</v>
+        <v>0.08252299399973505</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06264380602057698</v>
+        <v>0.06218677146527515</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.09048612663992557</v>
+        <v>0.0908246008161612</v>
       </c>
     </row>
     <row r="25">
@@ -1611,31 +1611,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12883</v>
+        <v>13041</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6531</v>
+        <v>6874</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3847</v>
+        <v>3291</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3710</v>
+        <v>3608</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3951</v>
+        <v>3852</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9919</v>
+        <v>10023</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>18164</v>
+        <v>18858</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13957</v>
+        <v>13967</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16609</v>
+        <v>16952</v>
       </c>
     </row>
     <row r="7">
@@ -1646,31 +1646,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28915</v>
+        <v>28135</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21451</v>
+        <v>21533</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15676</v>
+        <v>14232</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13727</v>
+        <v>14168</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17237</v>
+        <v>16405</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27349</v>
+        <v>26602</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37784</v>
+        <v>37824</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>33708</v>
+        <v>34603</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>36455</v>
+        <v>36331</v>
       </c>
     </row>
     <row r="8">
@@ -1755,31 +1755,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2366</v>
+        <v>2073</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3999</v>
+        <v>3900</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3080</v>
+        <v>3068</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3915</v>
+        <v>3928</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4864</v>
+        <v>4856</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14056</v>
+        <v>14252</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8015</v>
+        <v>7811</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11367</v>
+        <v>11384</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20669</v>
+        <v>20005</v>
       </c>
     </row>
     <row r="11">
@@ -1790,31 +1790,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13150</v>
+        <v>13612</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19027</v>
+        <v>18430</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13786</v>
+        <v>14590</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14528</v>
+        <v>15064</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17097</v>
+        <v>16863</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>32639</v>
+        <v>31933</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>24424</v>
+        <v>24899</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>29268</v>
+        <v>27865</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>41937</v>
+        <v>40678</v>
       </c>
     </row>
     <row r="12">
@@ -1899,31 +1899,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2777</v>
+        <v>2753</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5687</v>
+        <v>5787</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3056</v>
+        <v>3154</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4874</v>
+        <v>4293</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8022</v>
+        <v>7746</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11841</v>
+        <v>11673</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="15">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13051</v>
+        <v>12202</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17913</v>
+        <v>18673</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4579</v>
+        <v>5190</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13876</v>
+        <v>14010</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16559</v>
+        <v>17287</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5827</v>
+        <v>6952</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22754</v>
+        <v>22263</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31066</v>
+        <v>30180</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8774</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="16">
@@ -2043,31 +2043,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9250</v>
+        <v>9544</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9186</v>
+        <v>9496</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6687</v>
+        <v>6159</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11714</v>
+        <v>11558</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11724</v>
+        <v>11862</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25088</v>
+        <v>25164</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>24178</v>
+        <v>24064</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24694</v>
+        <v>25399</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>35104</v>
+        <v>35653</v>
       </c>
     </row>
     <row r="19">
@@ -2078,31 +2078,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25745</v>
+        <v>24877</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24709</v>
+        <v>25216</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20951</v>
+        <v>20247</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28667</v>
+        <v>28604</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28588</v>
+        <v>28863</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>48074</v>
+        <v>46336</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>46389</v>
+        <v>47742</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>47471</v>
+        <v>47533</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>61257</v>
+        <v>63227</v>
       </c>
     </row>
     <row r="20">
@@ -2187,31 +2187,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4199</v>
+        <v>4854</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5730</v>
+        <v>5866</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>16235</v>
+        <v>17151</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>11855</v>
+        <v>11565</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8218</v>
+        <v>8752</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>19865</v>
+        <v>19953</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19447</v>
+        <v>18162</v>
       </c>
     </row>
     <row r="23">
@@ -2222,31 +2222,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8273</v>
+        <v>8136</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10101</v>
+        <v>9192</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16335</v>
+        <v>16993</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18509</v>
+        <v>18956</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>35701</v>
+        <v>36585</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>29353</v>
+        <v>29109</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>23572</v>
+        <v>22273</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>40796</v>
+        <v>41261</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>39517</v>
+        <v>40363</v>
       </c>
     </row>
     <row r="24">
@@ -2336,22 +2336,22 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3419</v>
+        <v>3984</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4008</v>
+        <v>3250</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4594</v>
+        <v>5015</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4070</v>
+        <v>4140</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3297</v>
+        <v>3959</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5654</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="27">
@@ -2364,25 +2364,25 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>4090</v>
+        <v>6497</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15515</v>
+        <v>16498</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15523</v>
+        <v>15564</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>18103</v>
+        <v>18570</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>16561</v>
+        <v>15776</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>15394</v>
+        <v>15103</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>19582</v>
+        <v>18961</v>
       </c>
     </row>
     <row r="28">
@@ -2467,31 +2467,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>38676</v>
+        <v>39075</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>38570</v>
+        <v>38421</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>28433</v>
+        <v>27983</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>48109</v>
+        <v>46924</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>64826</v>
+        <v>63638</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>86601</v>
+        <v>87537</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>91662</v>
+        <v>93440</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>112210</v>
+        <v>110486</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>120713</v>
+        <v>122506</v>
       </c>
     </row>
     <row r="31">
@@ -2502,31 +2502,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>65531</v>
+        <v>67823</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>67300</v>
+        <v>67618</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>52610</v>
+        <v>51941</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>77269</v>
+        <v>77622</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>99202</v>
+        <v>99229</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>127928</v>
+        <v>126565</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>133694</v>
+        <v>134589</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>156524</v>
+        <v>155382</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>168589</v>
+        <v>169219</v>
       </c>
     </row>
     <row r="32">
